--- a/assets/plantilla_pedidos.xlsx
+++ b/assets/plantilla_pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ce_rozob_uniandes_edu_co/Documents/MINE 4103/Proyecto/MINE4103_Proyecto/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F2933F-F204-44D7-BB76-BEA3D709E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{30F2933F-F204-44D7-BB76-BEA3D709E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9650BE90-CD35-40C2-A44E-6D29F1B046F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E342779-704F-49AF-A8EA-43659A018E9C}"/>
+    <workbookView xWindow="-26895" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{1E342779-704F-49AF-A8EA-43659A018E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ejemplo</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>hola</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>shopify_id</t>
+  </si>
+  <si>
+    <t>city_order</t>
+  </si>
+  <si>
+    <t>order_address</t>
+  </si>
+  <si>
+    <t>product_description</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>suero_condition</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>width</t>
   </si>
 </sst>
 </file>
@@ -416,28 +449,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64659FB8-E1C8-42AC-85EE-638D433F48A7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
